--- a/archive/demo_data_3.xlsx
+++ b/archive/demo_data_3.xlsx
@@ -80,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -94,10 +94,10 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -110,6 +110,12 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,120 +433,126 @@
       <c r="A2" s="2">
         <v>-12.0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>-11.0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5">
+      <c r="B3" s="5"/>
+      <c r="C3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
         <v>1.0</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
       <c r="Z3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>-10.0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q4" s="4">
         <v>1.0</v>
       </c>
       <c r="R4" s="2"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
@@ -642,120 +654,126 @@
       <c r="A2" s="2">
         <v>-12.0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="R2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R2" s="5"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>-11.0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Q3" s="5">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" s="4">
         <v>1.0</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
       <c r="Z3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>-10.0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Q4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q4" s="4"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
@@ -857,15 +875,17 @@
       <c r="A2" s="2">
         <v>-12.0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="7"/>
       <c r="L2" s="8">
         <v>1.0</v>
@@ -883,29 +903,31 @@
       <c r="Q2" s="8">
         <v>1.0</v>
       </c>
-      <c r="R2" s="4"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>-11.0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J3" s="5"/>
       <c r="K3" s="7">
         <v>1.0</v>
       </c>
@@ -923,29 +945,31 @@
       <c r="Q3" s="7">
         <v>1.0</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="5"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
       <c r="Z3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>-10.0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4">
+        <v>1.0</v>
+      </c>
       <c r="K4" s="8">
         <v>1.0</v>
       </c>
@@ -963,14 +987,14 @@
       <c r="Q4" s="8">
         <v>1.0</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
@@ -1072,15 +1096,15 @@
       <c r="A2" s="2">
         <v>-12.0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="7">
         <v>1.0</v>
       </c>
@@ -1098,29 +1122,31 @@
       <c r="Q2" s="8">
         <v>1.0</v>
       </c>
-      <c r="R2" s="4"/>
+      <c r="R2" s="4">
+        <v>1.0</v>
+      </c>
       <c r="S2" s="2"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>-11.0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="7">
         <v>1.0</v>
       </c>
@@ -1138,29 +1164,31 @@
         <v>1.0</v>
       </c>
       <c r="Q3" s="7"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
       <c r="Z3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>-10.0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="9">
         <v>2.0</v>
       </c>
@@ -1176,14 +1204,16 @@
         <v>1.0</v>
       </c>
       <c r="Q4" s="7"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
@@ -1285,15 +1315,15 @@
       <c r="A2" s="2">
         <v>-12.0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="7">
         <v>1.0</v>
       </c>
@@ -1308,32 +1338,34 @@
       <c r="P2" s="7">
         <v>1.0</v>
       </c>
-      <c r="Q2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R2" s="4"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>-11.0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="7">
         <v>1.0</v>
       </c>
@@ -1345,38 +1377,38 @@
         <v>1.0</v>
       </c>
       <c r="O3" s="8"/>
-      <c r="P3" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="P3" s="8"/>
       <c r="Q3" s="7">
         <v>1.0</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="5"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Z3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>-10.0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="7">
         <v>1.0</v>
       </c>
@@ -1391,15 +1423,19 @@
       <c r="Q4" s="7">
         <v>1.0</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="6"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="11">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
